--- a/biology/Microbiologie/Acidiferrobacteraceae/Acidiferrobacteraceae.xlsx
+++ b/biology/Microbiologie/Acidiferrobacteraceae/Acidiferrobacteraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Acidiferrobacteraceae forment une famille de l'ordre de bactéries à Gram négatif Acidiferrobacterales , de l'embranchement des Pseudomonadota. Cet ordre contient les bactéries de trois genres différents dont les Acidiferrobacter.
 </t>
@@ -513,15 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Étymologie
-La famille Acidiferrobacteraceae a été nommée ainsi d'après le genre type qui lui a été assigné, Acidiferrobacter[1]. Son étymologie est la suivante : A.ci.di.fer.ro.bac.te.ra.ce’ae. N.L. masc. n. Acidiferrobacter, genre type de la famille; L. fem. pl. n. suff. -aceae, suffixe pour dénommer une famille; N.L. fem. pl. n. Acidiferrobacteraceae, la famille des Acidiferrobacter[1],[2].
-Historique
-L'ordre Acidiferrobacterales  et la famille Acidiferrobacteraceae ont été décrit en 2015 et inclus dans la classe des Gammaproteobacteria sur la base des analyses phylogénétiques des séquences d'ARN ribosomal 16S et des caractéristiques biochimiques pour accommoder les genres Acidiferrobacter et Sulfurifustis[1].
-Liste des genres
-Selon la LPSN  (29 août 2022)[3] :
-Acidiferrobacter, genre type de la famille
-Sulfuricaulis
-Sulfurifustis</t>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille Acidiferrobacteraceae a été nommée ainsi d'après le genre type qui lui a été assigné, Acidiferrobacter. Son étymologie est la suivante : A.ci.di.fer.ro.bac.te.ra.ce’ae. N.L. masc. n. Acidiferrobacter, genre type de la famille; L. fem. pl. n. suff. -aceae, suffixe pour dénommer une famille; N.L. fem. pl. n. Acidiferrobacteraceae, la famille des Acidiferrobacter,.
+</t>
         </is>
       </c>
     </row>
@@ -546,12 +557,90 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ordre Acidiferrobacterales  et la famille Acidiferrobacteraceae ont été décrit en 2015 et inclus dans la classe des Gammaproteobacteria sur la base des analyses phylogénétiques des séquences d'ARN ribosomal 16S et des caractéristiques biochimiques pour accommoder les genres Acidiferrobacter et Sulfurifustis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Acidiferrobacteraceae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acidiferrobacteraceae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (29 août 2022) :
+Acidiferrobacter, genre type de la famille
+Sulfuricaulis
+Sulfurifustis</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Acidiferrobacteraceae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acidiferrobacteraceae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lors de sa description de 2015, la famille Acidiferrobacteraceae comprend deux genres bactériens auxquels s'est ajouté un troisième en 2016[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de sa description de 2015, la famille Acidiferrobacteraceae comprend deux genres bactériens auxquels s'est ajouté un troisième en 2016.
 </t>
         </is>
       </c>
